--- a/Source/Tam/MaestroTests/SupportTests/Services.Broadcast.IntegrationTests/Files/BarterDataFiles/BarterFileImporter_ValidFormat_TwoBooks.xlsx
+++ b/Source/Tam/MaestroTests/SupportTests/Services.Broadcast.IntegrationTests/Files/BarterDataFiles/BarterFileImporter_ValidFormat_TwoBooks.xlsx
@@ -1,12 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-  <workbookPr/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
+  <workbookPr defaultThemeVersion="124226"/>
+  <bookViews>
+    <workbookView xWindow="240" yWindow="570" windowWidth="28455" windowHeight="11955"/>
+  </bookViews>
   <sheets>
-    <sheet state="visible" name="Sheet1" sheetId="1" r:id="rId3"/>
+    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <definedNames/>
-  <calcPr/>
+  <calcPr calcId="124519"/>
 </workbook>
 </file>
 
@@ -103,9 +106,6 @@
     <t>AM 2</t>
   </si>
   <si>
-    <t>AM 3&amp;4</t>
-  </si>
-  <si>
     <t>AM 5</t>
   </si>
   <si>
@@ -170,59 +170,65 @@
   </si>
   <si>
     <t>Comment 5</t>
+  </si>
+  <si>
+    <t>AM 34</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="2">
     <numFmt numFmtId="164" formatCode="0.000000000"/>
     <numFmt numFmtId="165" formatCode="[$-409]mmm\-yy"/>
   </numFmts>
   <fonts count="9">
     <font>
-      <sz val="11.0"/>
+      <sz val="11"/>
       <color rgb="FF000000"/>
       <name val="Calibri"/>
     </font>
     <font>
       <b/>
-      <sz val="11.0"/>
+      <sz val="11"/>
       <color rgb="FF000000"/>
       <name val="Calibri"/>
     </font>
     <font>
       <i/>
-      <sz val="11.0"/>
+      <sz val="11"/>
       <color rgb="FFFF0000"/>
       <name val="Calibri"/>
     </font>
     <font>
-      <sz val="11.0"/>
+      <sz val="11"/>
       <name val="Calibri"/>
     </font>
     <font>
-      <sz val="11.0"/>
+      <sz val="11"/>
       <color rgb="FFFF0000"/>
       <name val="Calibri"/>
     </font>
-    <font/>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
     <font>
       <b/>
-      <sz val="11.0"/>
+      <sz val="11"/>
       <color rgb="FFFF0000"/>
       <name val="Calibri"/>
     </font>
     <font>
       <b/>
-      <sz val="12.0"/>
+      <sz val="12"/>
       <color rgb="FF0000FF"/>
       <name val="Calibri"/>
     </font>
     <font>
       <b/>
-      <sz val="11.0"/>
+      <sz val="11"/>
       <name val="Calibri"/>
     </font>
   </fonts>
@@ -231,7 +237,7 @@
       <patternFill patternType="none"/>
     </fill>
     <fill>
-      <patternFill patternType="lightGray"/>
+      <patternFill patternType="gray125"/>
     </fill>
     <fill>
       <patternFill patternType="solid">
@@ -259,7 +265,13 @@
     </fill>
   </fills>
   <borders count="6">
-    <border/>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
     <border>
       <left style="thin">
         <color rgb="FF000000"/>
@@ -273,6 +285,7 @@
       <bottom style="thin">
         <color rgb="FF000000"/>
       </bottom>
+      <diagonal/>
     </border>
     <border>
       <left style="thin">
@@ -285,6 +298,7 @@
       <bottom style="thin">
         <color rgb="FF000000"/>
       </bottom>
+      <diagonal/>
     </border>
     <border>
       <left/>
@@ -295,6 +309,7 @@
       <bottom style="thin">
         <color rgb="FF000000"/>
       </bottom>
+      <diagonal/>
     </border>
     <border>
       <left/>
@@ -307,6 +322,7 @@
       <bottom style="thin">
         <color rgb="FF000000"/>
       </bottom>
+      <diagonal/>
     </border>
     <border>
       <left style="thin">
@@ -319,112 +335,385 @@
         <color rgb="FF000000"/>
       </top>
       <bottom/>
+      <diagonal/>
     </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" applyAlignment="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="31">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="14" fontId="0" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="0" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="49" fontId="0" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0" applyFont="1"/>
-    <xf borderId="1" fillId="2" fontId="1" numFmtId="0" xfId="0" applyBorder="1" applyFill="1" applyFont="1"/>
-    <xf borderId="1" fillId="2" fontId="0" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
-    <xf borderId="1" fillId="2" fontId="0" numFmtId="14" xfId="0" applyBorder="1" applyFont="1" applyNumberFormat="1"/>
-    <xf borderId="1" fillId="2" fontId="0" numFmtId="164" xfId="0" applyBorder="1" applyFont="1" applyNumberFormat="1"/>
-    <xf borderId="1" fillId="2" fontId="0" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment readingOrder="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf borderId="1" fillId="2" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment readingOrder="0"/>
-    </xf>
-    <xf borderId="1" fillId="2" fontId="0" numFmtId="49" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
-      <alignment readingOrder="0"/>
-    </xf>
-    <xf borderId="2" fillId="3" fontId="1" numFmtId="0" xfId="0" applyBorder="1" applyFill="1" applyFont="1"/>
-    <xf borderId="3" fillId="3" fontId="1" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
-    <xf borderId="4" fillId="3" fontId="1" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
-    <xf borderId="5" fillId="4" fontId="2" numFmtId="0" xfId="0" applyBorder="1" applyFill="1" applyFont="1"/>
-    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="0" applyFont="1"/>
-    <xf borderId="1" fillId="5" fontId="1" numFmtId="0" xfId="0" applyBorder="1" applyFill="1" applyFont="1"/>
-    <xf borderId="1" fillId="4" fontId="2" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
-    <xf borderId="0" fillId="0" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment readingOrder="0" shrinkToFit="0" vertical="center" wrapText="1"/>
-    </xf>
-    <xf borderId="0" fillId="0" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment horizontal="left" shrinkToFit="0" vertical="center" wrapText="1"/>
-    </xf>
-    <xf borderId="0" fillId="0" fontId="3" numFmtId="1" xfId="0" applyAlignment="1" applyFont="1" applyNumberFormat="1">
+    <xf numFmtId="1" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="4" numFmtId="1" xfId="0" applyAlignment="1" applyFont="1" applyNumberFormat="1">
+    <xf numFmtId="1" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="5" numFmtId="0" xfId="0" applyFont="1"/>
-    <xf borderId="0" fillId="0" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment shrinkToFit="0" vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment horizontal="left" readingOrder="0" shrinkToFit="0" vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="3" numFmtId="1" xfId="0" applyAlignment="1" applyFont="1" applyNumberFormat="1">
-      <alignment horizontal="center" shrinkToFit="1" vertical="center" wrapText="0"/>
+    <xf numFmtId="1" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="4" numFmtId="1" xfId="0" applyAlignment="1" applyFont="1" applyNumberFormat="1">
-      <alignment horizontal="center" shrinkToFit="1" vertical="center" wrapText="0"/>
+    <xf numFmtId="1" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="3" numFmtId="165" xfId="0" applyAlignment="1" applyFont="1" applyNumberFormat="1">
-      <alignment shrinkToFit="0" vertical="center" wrapText="1"/>
+    <xf numFmtId="165" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="3" numFmtId="165" xfId="0" applyAlignment="1" applyFont="1" applyNumberFormat="1">
-      <alignment horizontal="left" shrinkToFit="0" vertical="center" wrapText="1"/>
+    <xf numFmtId="165" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="6" numFmtId="1" xfId="0" applyAlignment="1" applyFont="1" applyNumberFormat="1">
+    <xf numFmtId="1" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="1" xfId="0" applyAlignment="1" applyFont="1" applyNumberFormat="1">
+    <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="7" numFmtId="1" xfId="0" applyAlignment="1" applyFont="1" applyNumberFormat="1">
+    <xf numFmtId="1" fontId="7" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="8" numFmtId="1" xfId="0" applyAlignment="1" applyFont="1" applyNumberFormat="1">
+    <xf numFmtId="1" fontId="8" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle xfId="0" name="Normal" builtinId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
 </styleSheet>
 </file>
 
-<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:cx="http://schemas.microsoft.com/office/drawing/2014/chartex" xmlns:cx1="http://schemas.microsoft.com/office/drawing/2015/9/8/chartex" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:dgm="http://schemas.openxmlformats.org/drawingml/2006/diagram"/>
+<file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+  <a:themeElements>
+    <a:clrScheme name="Office">
+      <a:dk1>
+        <a:sysClr val="windowText" lastClr="000000"/>
+      </a:dk1>
+      <a:lt1>
+        <a:sysClr val="window" lastClr="FFFFFF"/>
+      </a:lt1>
+      <a:dk2>
+        <a:srgbClr val="1F497D"/>
+      </a:dk2>
+      <a:lt2>
+        <a:srgbClr val="EEECE1"/>
+      </a:lt2>
+      <a:accent1>
+        <a:srgbClr val="4F81BD"/>
+      </a:accent1>
+      <a:accent2>
+        <a:srgbClr val="C0504D"/>
+      </a:accent2>
+      <a:accent3>
+        <a:srgbClr val="9BBB59"/>
+      </a:accent3>
+      <a:accent4>
+        <a:srgbClr val="8064A2"/>
+      </a:accent4>
+      <a:accent5>
+        <a:srgbClr val="4BACC6"/>
+      </a:accent5>
+      <a:accent6>
+        <a:srgbClr val="F79646"/>
+      </a:accent6>
+      <a:hlink>
+        <a:srgbClr val="0000FF"/>
+      </a:hlink>
+      <a:folHlink>
+        <a:srgbClr val="800080"/>
+      </a:folHlink>
+    </a:clrScheme>
+    <a:fontScheme name="Office">
+      <a:majorFont>
+        <a:latin typeface="Cambria"/>
+        <a:ea typeface=""/>
+        <a:cs typeface=""/>
+        <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
+        <a:font script="Hang" typeface="맑은 고딕"/>
+        <a:font script="Hans" typeface="宋体"/>
+        <a:font script="Hant" typeface="新細明體"/>
+        <a:font script="Arab" typeface="Times New Roman"/>
+        <a:font script="Hebr" typeface="Times New Roman"/>
+        <a:font script="Thai" typeface="Tahoma"/>
+        <a:font script="Ethi" typeface="Nyala"/>
+        <a:font script="Beng" typeface="Vrinda"/>
+        <a:font script="Gujr" typeface="Shruti"/>
+        <a:font script="Khmr" typeface="MoolBoran"/>
+        <a:font script="Knda" typeface="Tunga"/>
+        <a:font script="Guru" typeface="Raavi"/>
+        <a:font script="Cans" typeface="Euphemia"/>
+        <a:font script="Cher" typeface="Plantagenet Cherokee"/>
+        <a:font script="Yiii" typeface="Microsoft Yi Baiti"/>
+        <a:font script="Tibt" typeface="Microsoft Himalaya"/>
+        <a:font script="Thaa" typeface="MV Boli"/>
+        <a:font script="Deva" typeface="Mangal"/>
+        <a:font script="Telu" typeface="Gautami"/>
+        <a:font script="Taml" typeface="Latha"/>
+        <a:font script="Syrc" typeface="Estrangelo Edessa"/>
+        <a:font script="Orya" typeface="Kalinga"/>
+        <a:font script="Mlym" typeface="Kartika"/>
+        <a:font script="Laoo" typeface="DokChampa"/>
+        <a:font script="Sinh" typeface="Iskoola Pota"/>
+        <a:font script="Mong" typeface="Mongolian Baiti"/>
+        <a:font script="Viet" typeface="Times New Roman"/>
+        <a:font script="Uigh" typeface="Microsoft Uighur"/>
+      </a:majorFont>
+      <a:minorFont>
+        <a:latin typeface="Calibri"/>
+        <a:ea typeface=""/>
+        <a:cs typeface=""/>
+        <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
+        <a:font script="Hang" typeface="맑은 고딕"/>
+        <a:font script="Hans" typeface="宋体"/>
+        <a:font script="Hant" typeface="新細明體"/>
+        <a:font script="Arab" typeface="Arial"/>
+        <a:font script="Hebr" typeface="Arial"/>
+        <a:font script="Thai" typeface="Tahoma"/>
+        <a:font script="Ethi" typeface="Nyala"/>
+        <a:font script="Beng" typeface="Vrinda"/>
+        <a:font script="Gujr" typeface="Shruti"/>
+        <a:font script="Khmr" typeface="DaunPenh"/>
+        <a:font script="Knda" typeface="Tunga"/>
+        <a:font script="Guru" typeface="Raavi"/>
+        <a:font script="Cans" typeface="Euphemia"/>
+        <a:font script="Cher" typeface="Plantagenet Cherokee"/>
+        <a:font script="Yiii" typeface="Microsoft Yi Baiti"/>
+        <a:font script="Tibt" typeface="Microsoft Himalaya"/>
+        <a:font script="Thaa" typeface="MV Boli"/>
+        <a:font script="Deva" typeface="Mangal"/>
+        <a:font script="Telu" typeface="Gautami"/>
+        <a:font script="Taml" typeface="Latha"/>
+        <a:font script="Syrc" typeface="Estrangelo Edessa"/>
+        <a:font script="Orya" typeface="Kalinga"/>
+        <a:font script="Mlym" typeface="Kartika"/>
+        <a:font script="Laoo" typeface="DokChampa"/>
+        <a:font script="Sinh" typeface="Iskoola Pota"/>
+        <a:font script="Mong" typeface="Mongolian Baiti"/>
+        <a:font script="Viet" typeface="Arial"/>
+        <a:font script="Uigh" typeface="Microsoft Uighur"/>
+      </a:minorFont>
+    </a:fontScheme>
+    <a:fmtScheme name="Office">
+      <a:fillStyleLst>
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:gradFill rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:schemeClr val="phClr">
+                <a:tint val="50000"/>
+                <a:satMod val="300000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="35000">
+              <a:schemeClr val="phClr">
+                <a:tint val="37000"/>
+                <a:satMod val="300000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="phClr">
+                <a:tint val="15000"/>
+                <a:satMod val="350000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:lin ang="16200000" scaled="1"/>
+        </a:gradFill>
+        <a:gradFill rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:schemeClr val="phClr">
+                <a:shade val="51000"/>
+                <a:satMod val="130000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="80000">
+              <a:schemeClr val="phClr">
+                <a:shade val="93000"/>
+                <a:satMod val="130000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="phClr">
+                <a:shade val="94000"/>
+                <a:satMod val="135000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:lin ang="16200000" scaled="0"/>
+        </a:gradFill>
+      </a:fillStyleLst>
+      <a:lnStyleLst>
+        <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="phClr">
+              <a:shade val="95000"/>
+              <a:satMod val="105000"/>
+            </a:schemeClr>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+        </a:ln>
+        <a:ln w="25400" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="phClr"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+        </a:ln>
+        <a:ln w="38100" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="phClr"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+        </a:ln>
+      </a:lnStyleLst>
+      <a:effectStyleLst>
+        <a:effectStyle>
+          <a:effectLst>
+            <a:outerShdw blurRad="40000" dist="20000" dir="5400000" rotWithShape="0">
+              <a:srgbClr val="000000">
+                <a:alpha val="38000"/>
+              </a:srgbClr>
+            </a:outerShdw>
+          </a:effectLst>
+        </a:effectStyle>
+        <a:effectStyle>
+          <a:effectLst>
+            <a:outerShdw blurRad="40000" dist="23000" dir="5400000" rotWithShape="0">
+              <a:srgbClr val="000000">
+                <a:alpha val="35000"/>
+              </a:srgbClr>
+            </a:outerShdw>
+          </a:effectLst>
+        </a:effectStyle>
+        <a:effectStyle>
+          <a:effectLst>
+            <a:outerShdw blurRad="40000" dist="23000" dir="5400000" rotWithShape="0">
+              <a:srgbClr val="000000">
+                <a:alpha val="35000"/>
+              </a:srgbClr>
+            </a:outerShdw>
+          </a:effectLst>
+          <a:scene3d>
+            <a:camera prst="orthographicFront">
+              <a:rot lat="0" lon="0" rev="0"/>
+            </a:camera>
+            <a:lightRig rig="threePt" dir="t">
+              <a:rot lat="0" lon="0" rev="1200000"/>
+            </a:lightRig>
+          </a:scene3d>
+          <a:sp3d>
+            <a:bevelT w="63500" h="25400"/>
+          </a:sp3d>
+        </a:effectStyle>
+      </a:effectStyleLst>
+      <a:bgFillStyleLst>
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:gradFill rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:schemeClr val="phClr">
+                <a:tint val="40000"/>
+                <a:satMod val="350000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="40000">
+              <a:schemeClr val="phClr">
+                <a:tint val="45000"/>
+                <a:shade val="99000"/>
+                <a:satMod val="350000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="phClr">
+                <a:shade val="20000"/>
+                <a:satMod val="255000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:path path="circle">
+            <a:fillToRect l="50000" t="-80000" r="50000" b="180000"/>
+          </a:path>
+        </a:gradFill>
+        <a:gradFill rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:schemeClr val="phClr">
+                <a:tint val="80000"/>
+                <a:satMod val="300000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="phClr">
+                <a:shade val="30000"/>
+                <a:satMod val="200000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:path path="circle">
+            <a:fillToRect l="50000" t="50000" r="50000" b="50000"/>
+          </a:path>
+        </a:gradFill>
+      </a:bgFillStyleLst>
+    </a:fmtScheme>
+  </a:themeElements>
+  <a:objectDefaults/>
+  <a:extraClrSchemeLst/>
+</a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-  <sheetPr>
-    <pageSetUpPr/>
-  </sheetPr>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:K1000"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F15" sqref="F15"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr customHeight="1" defaultColWidth="14.43" defaultRowHeight="15.0"/>
+  <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15" customHeight="1"/>
   <cols>
-    <col customWidth="1" min="1" max="1" width="18.29"/>
-    <col customWidth="1" min="2" max="2" width="47.86"/>
-    <col customWidth="1" min="3" max="3" width="37.86"/>
-    <col customWidth="1" min="4" max="4" width="10.29"/>
-    <col customWidth="1" min="5" max="5" width="5.57"/>
-    <col customWidth="1" min="6" max="9" width="9.57"/>
-    <col customWidth="1" min="10" max="10" width="12.0"/>
-    <col customWidth="1" min="11" max="11" width="15.86"/>
+    <col min="1" max="1" width="18.28515625" customWidth="1"/>
+    <col min="2" max="2" width="47.85546875" customWidth="1"/>
+    <col min="3" max="3" width="37.85546875" customWidth="1"/>
+    <col min="4" max="4" width="10.28515625" customWidth="1"/>
+    <col min="5" max="5" width="5.5703125" customWidth="1"/>
+    <col min="6" max="9" width="9.5703125" customWidth="1"/>
+    <col min="10" max="10" width="12" customWidth="1"/>
+    <col min="11" max="11" width="15.85546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1">
+    <row r="1" spans="1:11">
       <c r="A1" s="1"/>
       <c r="B1" s="2" t="s">
         <v>0</v>
@@ -433,7 +722,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="2">
+    <row r="2" spans="1:11">
       <c r="A2" s="2" t="s">
         <v>2</v>
       </c>
@@ -444,7 +733,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="3">
+    <row r="3" spans="1:11">
       <c r="A3" s="2" t="s">
         <v>5</v>
       </c>
@@ -453,29 +742,29 @@
       </c>
       <c r="C3" s="2"/>
     </row>
-    <row r="4">
+    <row r="4" spans="1:11">
       <c r="A4" s="2" t="s">
         <v>7</v>
       </c>
       <c r="B4" s="4">
-        <v>43496.0</v>
+        <v>43496</v>
       </c>
       <c r="C4" s="2" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="5">
+    <row r="5" spans="1:11">
       <c r="A5" s="2" t="s">
         <v>9</v>
       </c>
       <c r="B5" s="4">
-        <v>43829.0</v>
+        <v>43829</v>
       </c>
       <c r="C5" s="2" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="6">
+    <row r="6" spans="1:11">
       <c r="A6" s="2" t="s">
         <v>10</v>
       </c>
@@ -486,7 +775,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="7">
+    <row r="7" spans="1:11">
       <c r="A7" s="2" t="s">
         <v>12</v>
       </c>
@@ -497,7 +786,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="8">
+    <row r="8" spans="1:11">
       <c r="A8" s="2" t="s">
         <v>14</v>
       </c>
@@ -508,7 +797,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="9">
+    <row r="9" spans="1:11">
       <c r="A9" s="2" t="s">
         <v>17</v>
       </c>
@@ -519,7 +808,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="10">
+    <row r="10" spans="1:11">
       <c r="A10" s="2" t="s">
         <v>20</v>
       </c>
@@ -533,7 +822,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="11">
+    <row r="11" spans="1:11">
       <c r="A11" s="2" t="s">
         <v>23</v>
       </c>
@@ -544,7 +833,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="13">
+    <row r="13" spans="1:11">
       <c r="A13" s="1"/>
       <c r="D13" s="9" t="s">
         <v>26</v>
@@ -558,7 +847,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="14">
+    <row r="14" spans="1:11">
       <c r="A14" s="1"/>
       <c r="D14" s="12" t="s">
         <v>28</v>
@@ -567,215 +856,215 @@
         <v>29</v>
       </c>
       <c r="F14" s="12" t="s">
+        <v>52</v>
+      </c>
+      <c r="G14" s="12" t="s">
         <v>30</v>
       </c>
-      <c r="G14" s="12" t="s">
+      <c r="H14" s="12" t="s">
         <v>31</v>
       </c>
-      <c r="H14" s="12" t="s">
+      <c r="I14" s="12" t="s">
         <v>32</v>
       </c>
-      <c r="I14" s="12" t="s">
+      <c r="J14" s="12" t="s">
         <v>33</v>
       </c>
-      <c r="J14" s="12" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="15">
+    </row>
+    <row r="15" spans="1:11">
       <c r="A15" s="13"/>
       <c r="B15" s="14" t="s">
+        <v>34</v>
+      </c>
+      <c r="C15" s="14" t="s">
         <v>35</v>
       </c>
-      <c r="C15" s="14" t="s">
+      <c r="D15" s="15">
+        <v>30</v>
+      </c>
+      <c r="E15" s="15">
+        <v>30</v>
+      </c>
+      <c r="F15" s="15">
+        <v>60</v>
+      </c>
+      <c r="G15" s="15">
+        <v>30</v>
+      </c>
+      <c r="H15" s="15">
+        <v>30</v>
+      </c>
+      <c r="I15" s="15">
+        <v>30</v>
+      </c>
+      <c r="J15" s="15">
+        <v>15</v>
+      </c>
+      <c r="K15" s="14" t="s">
         <v>36</v>
       </c>
-      <c r="D15" s="15">
-        <v>30.0</v>
-      </c>
-      <c r="E15" s="15">
-        <v>30.0</v>
-      </c>
-      <c r="F15" s="15">
-        <v>60.0</v>
-      </c>
-      <c r="G15" s="15">
-        <v>30.0</v>
-      </c>
-      <c r="H15" s="15">
-        <v>30.0</v>
-      </c>
-      <c r="I15" s="15">
-        <v>30.0</v>
-      </c>
-      <c r="J15" s="15">
-        <v>15.0</v>
-      </c>
-      <c r="K15" s="14" t="s">
+    </row>
+    <row r="16" spans="1:11">
+      <c r="B16" s="16" t="s">
         <v>37</v>
       </c>
-    </row>
-    <row r="16">
-      <c r="B16" s="16" t="s">
+      <c r="C16" s="17" t="s">
         <v>38</v>
       </c>
-      <c r="C16" s="17" t="s">
+      <c r="D16" s="18">
+        <v>1</v>
+      </c>
+      <c r="E16" s="18">
+        <v>4</v>
+      </c>
+      <c r="F16" s="18">
+        <v>3</v>
+      </c>
+      <c r="G16" s="18">
+        <v>5</v>
+      </c>
+      <c r="H16" s="19">
+        <v>1</v>
+      </c>
+      <c r="I16" s="19">
+        <v>4</v>
+      </c>
+      <c r="J16" s="20">
+        <v>3</v>
+      </c>
+      <c r="K16" s="20" t="s">
         <v>39</v>
       </c>
-      <c r="D16" s="18">
-        <v>1.0</v>
-      </c>
-      <c r="E16" s="18">
-        <v>4.0</v>
-      </c>
-      <c r="F16" s="18">
-        <v>3.0</v>
-      </c>
-      <c r="G16" s="18">
-        <v>5.0</v>
-      </c>
-      <c r="H16" s="19">
-        <v>1.0</v>
-      </c>
-      <c r="I16" s="19">
-        <v>4.0</v>
-      </c>
-      <c r="J16" s="20">
-        <v>3.0</v>
-      </c>
-      <c r="K16" s="20" t="s">
+    </row>
+    <row r="17" spans="2:11">
+      <c r="B17" s="21" t="s">
         <v>40</v>
       </c>
-    </row>
-    <row r="17">
-      <c r="B17" s="21" t="s">
+      <c r="C17" s="17" t="s">
         <v>41</v>
       </c>
-      <c r="C17" s="17" t="s">
+      <c r="D17" s="18">
+        <v>2</v>
+      </c>
+      <c r="E17" s="18">
+        <v>1</v>
+      </c>
+      <c r="F17" s="18">
+        <v>2</v>
+      </c>
+      <c r="G17" s="18">
+        <v>1</v>
+      </c>
+      <c r="H17" s="18">
+        <v>2</v>
+      </c>
+      <c r="I17" s="18">
+        <v>1</v>
+      </c>
+      <c r="J17" s="20">
+        <v>2</v>
+      </c>
+      <c r="K17" s="20" t="s">
         <v>42</v>
       </c>
-      <c r="D17" s="18">
-        <v>2.0</v>
-      </c>
-      <c r="E17" s="18">
-        <v>1.0</v>
-      </c>
-      <c r="F17" s="18">
-        <v>2.0</v>
-      </c>
-      <c r="G17" s="18">
-        <v>1.0</v>
-      </c>
-      <c r="H17" s="18">
-        <v>2.0</v>
-      </c>
-      <c r="I17" s="18">
-        <v>1.0</v>
-      </c>
-      <c r="J17" s="20">
-        <v>2.0</v>
-      </c>
-      <c r="K17" s="20" t="s">
+    </row>
+    <row r="18" spans="2:11">
+      <c r="B18" s="16" t="s">
         <v>43</v>
       </c>
-    </row>
-    <row r="18">
-      <c r="B18" s="16" t="s">
+      <c r="C18" s="22" t="s">
         <v>44</v>
       </c>
-      <c r="C18" s="22" t="s">
+      <c r="D18" s="18">
+        <v>3</v>
+      </c>
+      <c r="E18" s="18">
+        <v>2</v>
+      </c>
+      <c r="F18" s="18">
+        <v>1</v>
+      </c>
+      <c r="G18" s="18">
+        <v>2</v>
+      </c>
+      <c r="H18" s="18">
+        <v>3</v>
+      </c>
+      <c r="I18" s="18">
+        <v>2</v>
+      </c>
+      <c r="J18" s="20">
+        <v>1</v>
+      </c>
+      <c r="K18" s="20" t="s">
         <v>45</v>
       </c>
-      <c r="D18" s="18">
-        <v>3.0</v>
-      </c>
-      <c r="E18" s="18">
-        <v>2.0</v>
-      </c>
-      <c r="F18" s="18">
-        <v>1.0</v>
-      </c>
-      <c r="G18" s="18">
-        <v>2.0</v>
-      </c>
-      <c r="H18" s="18">
-        <v>3.0</v>
-      </c>
-      <c r="I18" s="18">
-        <v>2.0</v>
-      </c>
-      <c r="J18" s="20">
-        <v>1.0</v>
-      </c>
-      <c r="K18" s="20" t="s">
+    </row>
+    <row r="19" spans="2:11">
+      <c r="B19" s="21" t="s">
         <v>46</v>
       </c>
-    </row>
-    <row r="19">
-      <c r="B19" s="21" t="s">
+      <c r="C19" s="21" t="s">
         <v>47</v>
       </c>
-      <c r="C19" s="21" t="s">
+      <c r="D19" s="23">
+        <v>2</v>
+      </c>
+      <c r="E19" s="23">
+        <v>1</v>
+      </c>
+      <c r="F19" s="23">
+        <v>2</v>
+      </c>
+      <c r="G19" s="24">
+        <v>1</v>
+      </c>
+      <c r="H19" s="23">
+        <v>2</v>
+      </c>
+      <c r="I19" s="18">
+        <v>1</v>
+      </c>
+      <c r="J19" s="20">
+        <v>2</v>
+      </c>
+      <c r="K19" s="20" t="s">
         <v>48</v>
       </c>
-      <c r="D19" s="23">
-        <v>2.0</v>
-      </c>
-      <c r="E19" s="23">
-        <v>1.0</v>
-      </c>
-      <c r="F19" s="23">
-        <v>2.0</v>
-      </c>
-      <c r="G19" s="24">
-        <v>1.0</v>
-      </c>
-      <c r="H19" s="23">
-        <v>2.0</v>
-      </c>
-      <c r="I19" s="18">
-        <v>1.0</v>
-      </c>
-      <c r="J19" s="20">
-        <v>2.0</v>
-      </c>
-      <c r="K19" s="20" t="s">
+    </row>
+    <row r="20" spans="2:11">
+      <c r="B20" s="21" t="s">
         <v>49</v>
       </c>
-    </row>
-    <row r="20">
-      <c r="B20" s="21" t="s">
+      <c r="C20" s="22" t="s">
         <v>50</v>
       </c>
-      <c r="C20" s="22" t="s">
+      <c r="D20" s="18">
+        <v>1</v>
+      </c>
+      <c r="E20" s="18">
+        <v>4</v>
+      </c>
+      <c r="F20" s="18">
+        <v>3</v>
+      </c>
+      <c r="G20" s="23">
+        <v>5</v>
+      </c>
+      <c r="H20" s="18">
+        <v>1</v>
+      </c>
+      <c r="I20" s="18">
+        <v>4</v>
+      </c>
+      <c r="J20" s="20">
+        <v>3</v>
+      </c>
+      <c r="K20" s="20" t="s">
         <v>51</v>
       </c>
-      <c r="D20" s="18">
-        <v>1.0</v>
-      </c>
-      <c r="E20" s="18">
-        <v>4.0</v>
-      </c>
-      <c r="F20" s="18">
-        <v>3.0</v>
-      </c>
-      <c r="G20" s="23">
-        <v>5.0</v>
-      </c>
-      <c r="H20" s="18">
-        <v>1.0</v>
-      </c>
-      <c r="I20" s="18">
-        <v>4.0</v>
-      </c>
-      <c r="J20" s="20">
-        <v>3.0</v>
-      </c>
-      <c r="K20" s="20" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="21" ht="15.75" customHeight="1">
+    </row>
+    <row r="21" spans="2:11" ht="15.75" customHeight="1">
       <c r="B21" s="25"/>
       <c r="C21" s="26"/>
       <c r="D21" s="18"/>
@@ -785,7 +1074,7 @@
       <c r="H21" s="18"/>
       <c r="I21" s="18"/>
     </row>
-    <row r="22" ht="15.75" customHeight="1">
+    <row r="22" spans="2:11" ht="15.75" customHeight="1">
       <c r="B22" s="25"/>
       <c r="C22" s="26"/>
       <c r="D22" s="18"/>
@@ -795,7 +1084,7 @@
       <c r="H22" s="18"/>
       <c r="I22" s="18"/>
     </row>
-    <row r="23" ht="15.75" customHeight="1">
+    <row r="23" spans="2:11" ht="15.75" customHeight="1">
       <c r="B23" s="25"/>
       <c r="C23" s="26"/>
       <c r="D23" s="18"/>
@@ -805,7 +1094,7 @@
       <c r="H23" s="18"/>
       <c r="I23" s="18"/>
     </row>
-    <row r="24" ht="15.75" customHeight="1">
+    <row r="24" spans="2:11" ht="15.75" customHeight="1">
       <c r="B24" s="25"/>
       <c r="C24" s="26"/>
       <c r="D24" s="18"/>
@@ -815,7 +1104,7 @@
       <c r="H24" s="18"/>
       <c r="I24" s="18"/>
     </row>
-    <row r="25" ht="15.75" customHeight="1">
+    <row r="25" spans="2:11" ht="15.75" customHeight="1">
       <c r="B25" s="25"/>
       <c r="C25" s="26"/>
       <c r="D25" s="18"/>
@@ -825,7 +1114,7 @@
       <c r="H25" s="18"/>
       <c r="I25" s="19"/>
     </row>
-    <row r="26" ht="15.75" customHeight="1">
+    <row r="26" spans="2:11" ht="15.75" customHeight="1">
       <c r="B26" s="25"/>
       <c r="C26" s="26"/>
       <c r="D26" s="18"/>
@@ -835,7 +1124,7 @@
       <c r="H26" s="18"/>
       <c r="I26" s="18"/>
     </row>
-    <row r="27" ht="15.75" customHeight="1">
+    <row r="27" spans="2:11" ht="15.75" customHeight="1">
       <c r="B27" s="25"/>
       <c r="C27" s="26"/>
       <c r="D27" s="18"/>
@@ -845,7 +1134,7 @@
       <c r="H27" s="27"/>
       <c r="I27" s="18"/>
     </row>
-    <row r="28" ht="15.75" customHeight="1">
+    <row r="28" spans="2:11" ht="15.75" customHeight="1">
       <c r="B28" s="25"/>
       <c r="C28" s="26"/>
       <c r="D28" s="18"/>
@@ -855,7 +1144,7 @@
       <c r="H28" s="18"/>
       <c r="I28" s="18"/>
     </row>
-    <row r="29" ht="15.75" customHeight="1">
+    <row r="29" spans="2:11" ht="15.75" customHeight="1">
       <c r="B29" s="25"/>
       <c r="C29" s="26"/>
       <c r="D29" s="18"/>
@@ -865,7 +1154,7 @@
       <c r="H29" s="27"/>
       <c r="I29" s="18"/>
     </row>
-    <row r="30" ht="15.75" customHeight="1">
+    <row r="30" spans="2:11" ht="15.75" customHeight="1">
       <c r="B30" s="25"/>
       <c r="C30" s="26"/>
       <c r="D30" s="18"/>
@@ -875,7 +1164,7 @@
       <c r="H30" s="18"/>
       <c r="I30" s="18"/>
     </row>
-    <row r="31" ht="15.75" customHeight="1">
+    <row r="31" spans="2:11" ht="15.75" customHeight="1">
       <c r="B31" s="25"/>
       <c r="C31" s="26"/>
       <c r="D31" s="18"/>
@@ -885,7 +1174,7 @@
       <c r="H31" s="18"/>
       <c r="I31" s="19"/>
     </row>
-    <row r="32" ht="15.75" customHeight="1">
+    <row r="32" spans="2:11" ht="15.75" customHeight="1">
       <c r="B32" s="25"/>
       <c r="C32" s="26"/>
       <c r="D32" s="18"/>
@@ -895,7 +1184,7 @@
       <c r="H32" s="18"/>
       <c r="I32" s="27"/>
     </row>
-    <row r="33" ht="15.75" customHeight="1">
+    <row r="33" spans="2:9" ht="15.75" customHeight="1">
       <c r="B33" s="25"/>
       <c r="C33" s="26"/>
       <c r="D33" s="18"/>
@@ -905,7 +1194,7 @@
       <c r="H33" s="27"/>
       <c r="I33" s="18"/>
     </row>
-    <row r="34" ht="15.75" customHeight="1">
+    <row r="34" spans="2:9" ht="15.75" customHeight="1">
       <c r="B34" s="25"/>
       <c r="C34" s="26"/>
       <c r="D34" s="18"/>
@@ -915,7 +1204,7 @@
       <c r="H34" s="18"/>
       <c r="I34" s="18"/>
     </row>
-    <row r="35" ht="15.75" customHeight="1">
+    <row r="35" spans="2:9" ht="15.75" customHeight="1">
       <c r="B35" s="25"/>
       <c r="C35" s="26"/>
       <c r="D35" s="18"/>
@@ -925,7 +1214,7 @@
       <c r="H35" s="18"/>
       <c r="I35" s="18"/>
     </row>
-    <row r="36" ht="15.75" customHeight="1">
+    <row r="36" spans="2:9" ht="15.75" customHeight="1">
       <c r="B36" s="25"/>
       <c r="C36" s="26"/>
       <c r="D36" s="18"/>
@@ -935,7 +1224,7 @@
       <c r="H36" s="18"/>
       <c r="I36" s="18"/>
     </row>
-    <row r="37" ht="15.75" customHeight="1">
+    <row r="37" spans="2:9" ht="15.75" customHeight="1">
       <c r="B37" s="25"/>
       <c r="C37" s="26"/>
       <c r="D37" s="18"/>
@@ -945,7 +1234,7 @@
       <c r="H37" s="18"/>
       <c r="I37" s="18"/>
     </row>
-    <row r="38" ht="15.75" customHeight="1">
+    <row r="38" spans="2:9" ht="15.75" customHeight="1">
       <c r="B38" s="25"/>
       <c r="C38" s="26"/>
       <c r="D38" s="18"/>
@@ -955,7 +1244,7 @@
       <c r="H38" s="18"/>
       <c r="I38" s="19"/>
     </row>
-    <row r="39" ht="15.75" customHeight="1">
+    <row r="39" spans="2:9" ht="15.75" customHeight="1">
       <c r="B39" s="25"/>
       <c r="C39" s="26"/>
       <c r="D39" s="18"/>
@@ -965,7 +1254,7 @@
       <c r="H39" s="18"/>
       <c r="I39" s="18"/>
     </row>
-    <row r="40" ht="15.75" customHeight="1">
+    <row r="40" spans="2:9" ht="15.75" customHeight="1">
       <c r="B40" s="25"/>
       <c r="C40" s="26"/>
       <c r="D40" s="18"/>
@@ -975,7 +1264,7 @@
       <c r="H40" s="18"/>
       <c r="I40" s="18"/>
     </row>
-    <row r="41" ht="15.75" customHeight="1">
+    <row r="41" spans="2:9" ht="15.75" customHeight="1">
       <c r="B41" s="25"/>
       <c r="C41" s="26"/>
       <c r="D41" s="18"/>
@@ -985,7 +1274,7 @@
       <c r="H41" s="18"/>
       <c r="I41" s="18"/>
     </row>
-    <row r="42" ht="15.75" customHeight="1">
+    <row r="42" spans="2:9" ht="15.75" customHeight="1">
       <c r="B42" s="25"/>
       <c r="C42" s="26"/>
       <c r="D42" s="18"/>
@@ -995,7 +1284,7 @@
       <c r="H42" s="19"/>
       <c r="I42" s="18"/>
     </row>
-    <row r="43" ht="15.75" customHeight="1">
+    <row r="43" spans="2:9" ht="15.75" customHeight="1">
       <c r="B43" s="25"/>
       <c r="C43" s="26"/>
       <c r="D43" s="18"/>
@@ -1005,7 +1294,7 @@
       <c r="H43" s="18"/>
       <c r="I43" s="18"/>
     </row>
-    <row r="44" ht="15.75" customHeight="1">
+    <row r="44" spans="2:9" ht="15.75" customHeight="1">
       <c r="B44" s="25"/>
       <c r="C44" s="25"/>
       <c r="D44" s="18"/>
@@ -1015,7 +1304,7 @@
       <c r="H44" s="18"/>
       <c r="I44" s="19"/>
     </row>
-    <row r="45" ht="15.75" customHeight="1">
+    <row r="45" spans="2:9" ht="15.75" customHeight="1">
       <c r="B45" s="25"/>
       <c r="C45" s="25"/>
       <c r="D45" s="18"/>
@@ -1025,7 +1314,7 @@
       <c r="H45" s="19"/>
       <c r="I45" s="18"/>
     </row>
-    <row r="46" ht="15.75" customHeight="1">
+    <row r="46" spans="2:9" ht="15.75" customHeight="1">
       <c r="B46" s="25"/>
       <c r="C46" s="25"/>
       <c r="D46" s="18"/>
@@ -1035,7 +1324,7 @@
       <c r="H46" s="18"/>
       <c r="I46" s="18"/>
     </row>
-    <row r="47" ht="15.75" customHeight="1">
+    <row r="47" spans="2:9" ht="15.75" customHeight="1">
       <c r="B47" s="25"/>
       <c r="C47" s="26"/>
       <c r="D47" s="19"/>
@@ -1045,7 +1334,7 @@
       <c r="H47" s="18"/>
       <c r="I47" s="18"/>
     </row>
-    <row r="48" ht="15.75" customHeight="1">
+    <row r="48" spans="2:9" ht="15.75" customHeight="1">
       <c r="B48" s="25"/>
       <c r="C48" s="26"/>
       <c r="D48" s="18"/>
@@ -1055,7 +1344,7 @@
       <c r="H48" s="18"/>
       <c r="I48" s="18"/>
     </row>
-    <row r="49" ht="15.75" customHeight="1">
+    <row r="49" spans="2:9" ht="15.75" customHeight="1">
       <c r="B49" s="25"/>
       <c r="C49" s="26"/>
       <c r="D49" s="18"/>
@@ -1065,7 +1354,7 @@
       <c r="H49" s="18"/>
       <c r="I49" s="18"/>
     </row>
-    <row r="50" ht="15.75" customHeight="1">
+    <row r="50" spans="2:9" ht="15.75" customHeight="1">
       <c r="B50" s="25"/>
       <c r="C50" s="26"/>
       <c r="D50" s="18"/>
@@ -1075,7 +1364,7 @@
       <c r="H50" s="18"/>
       <c r="I50" s="18"/>
     </row>
-    <row r="51" ht="15.75" customHeight="1">
+    <row r="51" spans="2:9" ht="15.75" customHeight="1">
       <c r="B51" s="25"/>
       <c r="C51" s="26"/>
       <c r="D51" s="18"/>
@@ -1085,7 +1374,7 @@
       <c r="H51" s="18"/>
       <c r="I51" s="18"/>
     </row>
-    <row r="52" ht="15.75" customHeight="1">
+    <row r="52" spans="2:9" ht="15.75" customHeight="1">
       <c r="B52" s="25"/>
       <c r="C52" s="26"/>
       <c r="D52" s="18"/>
@@ -1095,7 +1384,7 @@
       <c r="H52" s="18"/>
       <c r="I52" s="18"/>
     </row>
-    <row r="53" ht="15.75" customHeight="1">
+    <row r="53" spans="2:9" ht="15.75" customHeight="1">
       <c r="B53" s="25"/>
       <c r="C53" s="26"/>
       <c r="D53" s="18"/>
@@ -1105,7 +1394,7 @@
       <c r="H53" s="18"/>
       <c r="I53" s="18"/>
     </row>
-    <row r="54" ht="15.75" customHeight="1">
+    <row r="54" spans="2:9" ht="15.75" customHeight="1">
       <c r="B54" s="25"/>
       <c r="C54" s="26"/>
       <c r="D54" s="18"/>
@@ -1115,7 +1404,7 @@
       <c r="H54" s="19"/>
       <c r="I54" s="18"/>
     </row>
-    <row r="55" ht="15.75" customHeight="1">
+    <row r="55" spans="2:9" ht="15.75" customHeight="1">
       <c r="B55" s="25"/>
       <c r="C55" s="26"/>
       <c r="D55" s="18"/>
@@ -1125,7 +1414,7 @@
       <c r="H55" s="18"/>
       <c r="I55" s="18"/>
     </row>
-    <row r="56" ht="15.75" customHeight="1">
+    <row r="56" spans="2:9" ht="15.75" customHeight="1">
       <c r="B56" s="25"/>
       <c r="C56" s="26"/>
       <c r="D56" s="18"/>
@@ -1135,7 +1424,7 @@
       <c r="H56" s="18"/>
       <c r="I56" s="19"/>
     </row>
-    <row r="57" ht="15.75" customHeight="1">
+    <row r="57" spans="2:9" ht="15.75" customHeight="1">
       <c r="B57" s="25"/>
       <c r="C57" s="26"/>
       <c r="D57" s="18"/>
@@ -1145,7 +1434,7 @@
       <c r="H57" s="18"/>
       <c r="I57" s="18"/>
     </row>
-    <row r="58" ht="15.75" customHeight="1">
+    <row r="58" spans="2:9" ht="15.75" customHeight="1">
       <c r="B58" s="25"/>
       <c r="C58" s="26"/>
       <c r="D58" s="18"/>
@@ -1155,7 +1444,7 @@
       <c r="H58" s="18"/>
       <c r="I58" s="18"/>
     </row>
-    <row r="59" ht="15.75" customHeight="1">
+    <row r="59" spans="2:9" ht="15.75" customHeight="1">
       <c r="B59" s="25"/>
       <c r="C59" s="26"/>
       <c r="D59" s="18"/>
@@ -1165,7 +1454,7 @@
       <c r="H59" s="18"/>
       <c r="I59" s="18"/>
     </row>
-    <row r="60" ht="15.75" customHeight="1">
+    <row r="60" spans="2:9" ht="15.75" customHeight="1">
       <c r="B60" s="25"/>
       <c r="C60" s="26"/>
       <c r="D60" s="18"/>
@@ -1175,7 +1464,7 @@
       <c r="H60" s="19"/>
       <c r="I60" s="18"/>
     </row>
-    <row r="61" ht="15.75" customHeight="1">
+    <row r="61" spans="2:9" ht="15.75" customHeight="1">
       <c r="B61" s="25"/>
       <c r="C61" s="26"/>
       <c r="D61" s="18"/>
@@ -1185,7 +1474,7 @@
       <c r="H61" s="18"/>
       <c r="I61" s="18"/>
     </row>
-    <row r="62" ht="15.75" customHeight="1">
+    <row r="62" spans="2:9" ht="15.75" customHeight="1">
       <c r="B62" s="25"/>
       <c r="C62" s="26"/>
       <c r="D62" s="18"/>
@@ -1195,7 +1484,7 @@
       <c r="H62" s="19"/>
       <c r="I62" s="18"/>
     </row>
-    <row r="63" ht="15.75" customHeight="1">
+    <row r="63" spans="2:9" ht="15.75" customHeight="1">
       <c r="B63" s="25"/>
       <c r="C63" s="26"/>
       <c r="D63" s="18"/>
@@ -1205,7 +1494,7 @@
       <c r="H63" s="18"/>
       <c r="I63" s="18"/>
     </row>
-    <row r="64" ht="15.75" customHeight="1">
+    <row r="64" spans="2:9" ht="15.75" customHeight="1">
       <c r="B64" s="25"/>
       <c r="C64" s="26"/>
       <c r="D64" s="18"/>
@@ -1215,7 +1504,7 @@
       <c r="H64" s="19"/>
       <c r="I64" s="18"/>
     </row>
-    <row r="65" ht="15.75" customHeight="1">
+    <row r="65" spans="2:9" ht="15.75" customHeight="1">
       <c r="B65" s="25"/>
       <c r="C65" s="26"/>
       <c r="D65" s="18"/>
@@ -1225,7 +1514,7 @@
       <c r="H65" s="18"/>
       <c r="I65" s="18"/>
     </row>
-    <row r="66" ht="15.75" customHeight="1">
+    <row r="66" spans="2:9" ht="15.75" customHeight="1">
       <c r="B66" s="25"/>
       <c r="C66" s="26"/>
       <c r="D66" s="18"/>
@@ -1235,7 +1524,7 @@
       <c r="H66" s="18"/>
       <c r="I66" s="18"/>
     </row>
-    <row r="67" ht="15.75" customHeight="1">
+    <row r="67" spans="2:9" ht="15.75" customHeight="1">
       <c r="B67" s="25"/>
       <c r="C67" s="26"/>
       <c r="D67" s="18"/>
@@ -1245,7 +1534,7 @@
       <c r="H67" s="18"/>
       <c r="I67" s="18"/>
     </row>
-    <row r="68" ht="15.75" customHeight="1">
+    <row r="68" spans="2:9" ht="15.75" customHeight="1">
       <c r="B68" s="25"/>
       <c r="C68" s="26"/>
       <c r="D68" s="18"/>
@@ -1255,7 +1544,7 @@
       <c r="H68" s="18"/>
       <c r="I68" s="18"/>
     </row>
-    <row r="69" ht="15.75" customHeight="1">
+    <row r="69" spans="2:9" ht="15.75" customHeight="1">
       <c r="B69" s="25"/>
       <c r="C69" s="26"/>
       <c r="D69" s="18"/>
@@ -1265,7 +1554,7 @@
       <c r="H69" s="18"/>
       <c r="I69" s="18"/>
     </row>
-    <row r="70" ht="15.75" customHeight="1">
+    <row r="70" spans="2:9" ht="15.75" customHeight="1">
       <c r="B70" s="25"/>
       <c r="C70" s="26"/>
       <c r="D70" s="18"/>
@@ -1275,7 +1564,7 @@
       <c r="H70" s="18"/>
       <c r="I70" s="18"/>
     </row>
-    <row r="71" ht="15.75" customHeight="1">
+    <row r="71" spans="2:9" ht="15.75" customHeight="1">
       <c r="B71" s="25"/>
       <c r="C71" s="26"/>
       <c r="D71" s="18"/>
@@ -1285,7 +1574,7 @@
       <c r="H71" s="18"/>
       <c r="I71" s="19"/>
     </row>
-    <row r="72" ht="15.75" customHeight="1">
+    <row r="72" spans="2:9" ht="15.75" customHeight="1">
       <c r="B72" s="25"/>
       <c r="C72" s="26"/>
       <c r="D72" s="18"/>
@@ -1295,7 +1584,7 @@
       <c r="H72" s="18"/>
       <c r="I72" s="18"/>
     </row>
-    <row r="73" ht="15.75" customHeight="1">
+    <row r="73" spans="2:9" ht="15.75" customHeight="1">
       <c r="B73" s="25"/>
       <c r="C73" s="26"/>
       <c r="D73" s="18"/>
@@ -1305,7 +1594,7 @@
       <c r="H73" s="18"/>
       <c r="I73" s="18"/>
     </row>
-    <row r="74" ht="15.75" customHeight="1">
+    <row r="74" spans="2:9" ht="15.75" customHeight="1">
       <c r="B74" s="25"/>
       <c r="C74" s="26"/>
       <c r="D74" s="18"/>
@@ -1315,7 +1604,7 @@
       <c r="H74" s="18"/>
       <c r="I74" s="18"/>
     </row>
-    <row r="75" ht="15.75" customHeight="1">
+    <row r="75" spans="2:9" ht="15.75" customHeight="1">
       <c r="B75" s="25"/>
       <c r="C75" s="26"/>
       <c r="D75" s="18"/>
@@ -1325,7 +1614,7 @@
       <c r="H75" s="18"/>
       <c r="I75" s="18"/>
     </row>
-    <row r="76" ht="15.75" customHeight="1">
+    <row r="76" spans="2:9" ht="15.75" customHeight="1">
       <c r="B76" s="25"/>
       <c r="C76" s="26"/>
       <c r="D76" s="19"/>
@@ -1335,7 +1624,7 @@
       <c r="H76" s="19"/>
       <c r="I76" s="18"/>
     </row>
-    <row r="77" ht="15.75" customHeight="1">
+    <row r="77" spans="2:9" ht="15.75" customHeight="1">
       <c r="B77" s="25"/>
       <c r="C77" s="26"/>
       <c r="D77" s="19"/>
@@ -1345,7 +1634,7 @@
       <c r="H77" s="18"/>
       <c r="I77" s="18"/>
     </row>
-    <row r="78" ht="15.75" customHeight="1">
+    <row r="78" spans="2:9" ht="15.75" customHeight="1">
       <c r="B78" s="25"/>
       <c r="C78" s="26"/>
       <c r="D78" s="18"/>
@@ -1355,7 +1644,7 @@
       <c r="H78" s="18"/>
       <c r="I78" s="18"/>
     </row>
-    <row r="79" ht="15.75" customHeight="1">
+    <row r="79" spans="2:9" ht="15.75" customHeight="1">
       <c r="B79" s="25"/>
       <c r="C79" s="26"/>
       <c r="D79" s="18"/>
@@ -1365,7 +1654,7 @@
       <c r="H79" s="18"/>
       <c r="I79" s="19"/>
     </row>
-    <row r="80" ht="15.75" customHeight="1">
+    <row r="80" spans="2:9" ht="15.75" customHeight="1">
       <c r="B80" s="25"/>
       <c r="C80" s="26"/>
       <c r="D80" s="18"/>
@@ -1375,7 +1664,7 @@
       <c r="H80" s="19"/>
       <c r="I80" s="18"/>
     </row>
-    <row r="81" ht="15.75" customHeight="1">
+    <row r="81" spans="2:9" ht="15.75" customHeight="1">
       <c r="B81" s="25"/>
       <c r="C81" s="26"/>
       <c r="D81" s="18"/>
@@ -1385,7 +1674,7 @@
       <c r="H81" s="18"/>
       <c r="I81" s="18"/>
     </row>
-    <row r="82" ht="15.75" customHeight="1">
+    <row r="82" spans="2:9" ht="15.75" customHeight="1">
       <c r="B82" s="25"/>
       <c r="C82" s="26"/>
       <c r="D82" s="18"/>
@@ -1395,7 +1684,7 @@
       <c r="H82" s="18"/>
       <c r="I82" s="18"/>
     </row>
-    <row r="83" ht="15.75" customHeight="1">
+    <row r="83" spans="2:9" ht="15.75" customHeight="1">
       <c r="B83" s="25"/>
       <c r="C83" s="26"/>
       <c r="D83" s="19"/>
@@ -1405,7 +1694,7 @@
       <c r="H83" s="18"/>
       <c r="I83" s="18"/>
     </row>
-    <row r="84" ht="15.75" customHeight="1">
+    <row r="84" spans="2:9" ht="15.75" customHeight="1">
       <c r="B84" s="25"/>
       <c r="C84" s="26"/>
       <c r="D84" s="18"/>
@@ -1415,7 +1704,7 @@
       <c r="H84" s="18"/>
       <c r="I84" s="18"/>
     </row>
-    <row r="85" ht="15.75" customHeight="1">
+    <row r="85" spans="2:9" ht="15.75" customHeight="1">
       <c r="B85" s="25"/>
       <c r="C85" s="26"/>
       <c r="D85" s="18"/>
@@ -1425,7 +1714,7 @@
       <c r="H85" s="18"/>
       <c r="I85" s="18"/>
     </row>
-    <row r="86" ht="15.75" customHeight="1">
+    <row r="86" spans="2:9" ht="15.75" customHeight="1">
       <c r="B86" s="25"/>
       <c r="C86" s="26"/>
       <c r="D86" s="18"/>
@@ -1435,7 +1724,7 @@
       <c r="H86" s="18"/>
       <c r="I86" s="18"/>
     </row>
-    <row r="87" ht="15.75" customHeight="1">
+    <row r="87" spans="2:9" ht="15.75" customHeight="1">
       <c r="B87" s="25"/>
       <c r="C87" s="26"/>
       <c r="D87" s="18"/>
@@ -1445,7 +1734,7 @@
       <c r="H87" s="18"/>
       <c r="I87" s="18"/>
     </row>
-    <row r="88" ht="15.75" customHeight="1">
+    <row r="88" spans="2:9" ht="15.75" customHeight="1">
       <c r="B88" s="25"/>
       <c r="C88" s="26"/>
       <c r="D88" s="18"/>
@@ -1455,7 +1744,7 @@
       <c r="H88" s="18"/>
       <c r="I88" s="18"/>
     </row>
-    <row r="89" ht="15.75" customHeight="1">
+    <row r="89" spans="2:9" ht="15.75" customHeight="1">
       <c r="B89" s="25"/>
       <c r="C89" s="26"/>
       <c r="D89" s="18"/>
@@ -1465,7 +1754,7 @@
       <c r="H89" s="18"/>
       <c r="I89" s="18"/>
     </row>
-    <row r="90" ht="15.75" customHeight="1">
+    <row r="90" spans="2:9" ht="15.75" customHeight="1">
       <c r="B90" s="25"/>
       <c r="C90" s="26"/>
       <c r="D90" s="18"/>
@@ -1475,7 +1764,7 @@
       <c r="H90" s="18"/>
       <c r="I90" s="18"/>
     </row>
-    <row r="91" ht="15.75" customHeight="1">
+    <row r="91" spans="2:9" ht="15.75" customHeight="1">
       <c r="B91" s="25"/>
       <c r="C91" s="26"/>
       <c r="D91" s="18"/>
@@ -1485,7 +1774,7 @@
       <c r="H91" s="18"/>
       <c r="I91" s="19"/>
     </row>
-    <row r="92" ht="15.75" customHeight="1">
+    <row r="92" spans="2:9" ht="15.75" customHeight="1">
       <c r="B92" s="25"/>
       <c r="C92" s="26"/>
       <c r="D92" s="18"/>
@@ -1495,7 +1784,7 @@
       <c r="H92" s="18"/>
       <c r="I92" s="18"/>
     </row>
-    <row r="93" ht="15.75" customHeight="1">
+    <row r="93" spans="2:9" ht="15.75" customHeight="1">
       <c r="B93" s="25"/>
       <c r="C93" s="26"/>
       <c r="D93" s="18"/>
@@ -1505,7 +1794,7 @@
       <c r="H93" s="18"/>
       <c r="I93" s="18"/>
     </row>
-    <row r="94" ht="15.75" customHeight="1">
+    <row r="94" spans="2:9" ht="15.75" customHeight="1">
       <c r="B94" s="25"/>
       <c r="C94" s="26"/>
       <c r="D94" s="18"/>
@@ -1515,7 +1804,7 @@
       <c r="H94" s="18"/>
       <c r="I94" s="18"/>
     </row>
-    <row r="95" ht="15.75" customHeight="1">
+    <row r="95" spans="2:9" ht="15.75" customHeight="1">
       <c r="B95" s="25"/>
       <c r="C95" s="26"/>
       <c r="D95" s="18"/>
@@ -1525,7 +1814,7 @@
       <c r="H95" s="18"/>
       <c r="I95" s="18"/>
     </row>
-    <row r="96" ht="15.75" customHeight="1">
+    <row r="96" spans="2:9" ht="15.75" customHeight="1">
       <c r="B96" s="25"/>
       <c r="C96" s="26"/>
       <c r="D96" s="18"/>
@@ -1535,7 +1824,7 @@
       <c r="H96" s="18"/>
       <c r="I96" s="19"/>
     </row>
-    <row r="97" ht="15.75" customHeight="1">
+    <row r="97" spans="2:9" ht="15.75" customHeight="1">
       <c r="B97" s="25"/>
       <c r="C97" s="26"/>
       <c r="D97" s="18"/>
@@ -1545,7 +1834,7 @@
       <c r="H97" s="18"/>
       <c r="I97" s="18"/>
     </row>
-    <row r="98" ht="15.75" customHeight="1">
+    <row r="98" spans="2:9" ht="15.75" customHeight="1">
       <c r="B98" s="25"/>
       <c r="C98" s="26"/>
       <c r="D98" s="18"/>
@@ -1555,7 +1844,7 @@
       <c r="H98" s="18"/>
       <c r="I98" s="18"/>
     </row>
-    <row r="99" ht="15.75" customHeight="1">
+    <row r="99" spans="2:9" ht="15.75" customHeight="1">
       <c r="B99" s="25"/>
       <c r="C99" s="26"/>
       <c r="D99" s="18"/>
@@ -1565,7 +1854,7 @@
       <c r="H99" s="18"/>
       <c r="I99" s="18"/>
     </row>
-    <row r="100" ht="15.75" customHeight="1">
+    <row r="100" spans="2:9" ht="15.75" customHeight="1">
       <c r="B100" s="25"/>
       <c r="C100" s="26"/>
       <c r="D100" s="18"/>
@@ -1575,7 +1864,7 @@
       <c r="H100" s="18"/>
       <c r="I100" s="18"/>
     </row>
-    <row r="101" ht="15.75" customHeight="1">
+    <row r="101" spans="2:9" ht="15.75" customHeight="1">
       <c r="B101" s="25"/>
       <c r="C101" s="26"/>
       <c r="D101" s="19"/>
@@ -1585,7 +1874,7 @@
       <c r="H101" s="18"/>
       <c r="I101" s="18"/>
     </row>
-    <row r="102" ht="15.75" customHeight="1">
+    <row r="102" spans="2:9" ht="15.75" customHeight="1">
       <c r="B102" s="25"/>
       <c r="C102" s="26"/>
       <c r="D102" s="18"/>
@@ -1595,7 +1884,7 @@
       <c r="H102" s="18"/>
       <c r="I102" s="18"/>
     </row>
-    <row r="103" ht="15.75" customHeight="1">
+    <row r="103" spans="2:9" ht="15.75" customHeight="1">
       <c r="B103" s="25"/>
       <c r="C103" s="26"/>
       <c r="D103" s="18"/>
@@ -1605,7 +1894,7 @@
       <c r="H103" s="18"/>
       <c r="I103" s="19"/>
     </row>
-    <row r="104" ht="15.75" customHeight="1">
+    <row r="104" spans="2:9" ht="15.75" customHeight="1">
       <c r="B104" s="25"/>
       <c r="C104" s="26"/>
       <c r="D104" s="18"/>
@@ -1615,7 +1904,7 @@
       <c r="H104" s="18"/>
       <c r="I104" s="18"/>
     </row>
-    <row r="105" ht="15.75" customHeight="1">
+    <row r="105" spans="2:9" ht="15.75" customHeight="1">
       <c r="B105" s="25"/>
       <c r="C105" s="26"/>
       <c r="D105" s="18"/>
@@ -1625,7 +1914,7 @@
       <c r="H105" s="18"/>
       <c r="I105" s="18"/>
     </row>
-    <row r="106" ht="15.75" customHeight="1">
+    <row r="106" spans="2:9" ht="15.75" customHeight="1">
       <c r="B106" s="25"/>
       <c r="C106" s="26"/>
       <c r="D106" s="18"/>
@@ -1635,7 +1924,7 @@
       <c r="H106" s="18"/>
       <c r="I106" s="19"/>
     </row>
-    <row r="107" ht="15.75" customHeight="1">
+    <row r="107" spans="2:9" ht="15.75" customHeight="1">
       <c r="B107" s="25"/>
       <c r="C107" s="26"/>
       <c r="D107" s="18"/>
@@ -1645,7 +1934,7 @@
       <c r="H107" s="18"/>
       <c r="I107" s="18"/>
     </row>
-    <row r="108" ht="15.75" customHeight="1">
+    <row r="108" spans="2:9" ht="15.75" customHeight="1">
       <c r="B108" s="25"/>
       <c r="C108" s="26"/>
       <c r="D108" s="18"/>
@@ -1655,7 +1944,7 @@
       <c r="H108" s="18"/>
       <c r="I108" s="18"/>
     </row>
-    <row r="109" ht="15.75" customHeight="1">
+    <row r="109" spans="2:9" ht="15.75" customHeight="1">
       <c r="B109" s="25"/>
       <c r="C109" s="26"/>
       <c r="D109" s="18"/>
@@ -1665,7 +1954,7 @@
       <c r="H109" s="18"/>
       <c r="I109" s="18"/>
     </row>
-    <row r="110" ht="15.75" customHeight="1">
+    <row r="110" spans="2:9" ht="15.75" customHeight="1">
       <c r="B110" s="25"/>
       <c r="C110" s="26"/>
       <c r="D110" s="18"/>
@@ -1675,7 +1964,7 @@
       <c r="H110" s="18"/>
       <c r="I110" s="18"/>
     </row>
-    <row r="111" ht="15.75" customHeight="1">
+    <row r="111" spans="2:9" ht="15.75" customHeight="1">
       <c r="B111" s="25"/>
       <c r="C111" s="26"/>
       <c r="D111" s="18"/>
@@ -1685,7 +1974,7 @@
       <c r="H111" s="18"/>
       <c r="I111" s="18"/>
     </row>
-    <row r="112" ht="15.75" customHeight="1">
+    <row r="112" spans="2:9" ht="15.75" customHeight="1">
       <c r="B112" s="25"/>
       <c r="C112" s="26"/>
       <c r="D112" s="18"/>
@@ -1695,7 +1984,7 @@
       <c r="H112" s="29"/>
       <c r="I112" s="29"/>
     </row>
-    <row r="113" ht="15.75" customHeight="1">
+    <row r="113" spans="2:9" ht="15.75" customHeight="1">
       <c r="B113" s="25"/>
       <c r="C113" s="26"/>
       <c r="D113" s="30"/>
@@ -1705,7 +1994,7 @@
       <c r="H113" s="18"/>
       <c r="I113" s="30"/>
     </row>
-    <row r="114" ht="15.75" customHeight="1">
+    <row r="114" spans="2:9" ht="15.75" customHeight="1">
       <c r="B114" s="25"/>
       <c r="C114" s="26"/>
       <c r="D114" s="30"/>
@@ -1715,7 +2004,7 @@
       <c r="H114" s="18"/>
       <c r="I114" s="27"/>
     </row>
-    <row r="115" ht="15.75" customHeight="1">
+    <row r="115" spans="2:9" ht="15.75" customHeight="1">
       <c r="B115" s="25"/>
       <c r="C115" s="26"/>
       <c r="D115" s="30"/>
@@ -1725,7 +2014,7 @@
       <c r="H115" s="19"/>
       <c r="I115" s="30"/>
     </row>
-    <row r="116" ht="15.75" customHeight="1">
+    <row r="116" spans="2:9" ht="15.75" customHeight="1">
       <c r="B116" s="25"/>
       <c r="C116" s="26"/>
       <c r="D116" s="30"/>
@@ -1735,7 +2024,7 @@
       <c r="H116" s="18"/>
       <c r="I116" s="18"/>
     </row>
-    <row r="117" ht="15.75" customHeight="1">
+    <row r="117" spans="2:9" ht="15.75" customHeight="1">
       <c r="B117" s="25"/>
       <c r="C117" s="26"/>
       <c r="D117" s="18"/>
@@ -1745,7 +2034,7 @@
       <c r="H117" s="18"/>
       <c r="I117" s="18"/>
     </row>
-    <row r="118" ht="15.75" customHeight="1">
+    <row r="118" spans="2:9" ht="15.75" customHeight="1">
       <c r="B118" s="25"/>
       <c r="C118" s="26"/>
       <c r="D118" s="18"/>
@@ -1755,7 +2044,7 @@
       <c r="H118" s="18"/>
       <c r="I118" s="18"/>
     </row>
-    <row r="119" ht="15.75" customHeight="1">
+    <row r="119" spans="2:9" ht="15.75" customHeight="1">
       <c r="B119" s="25"/>
       <c r="C119" s="26"/>
       <c r="D119" s="18"/>
@@ -1765,7 +2054,7 @@
       <c r="H119" s="18"/>
       <c r="I119" s="19"/>
     </row>
-    <row r="120" ht="15.75" customHeight="1">
+    <row r="120" spans="2:9" ht="15.75" customHeight="1">
       <c r="B120" s="25"/>
       <c r="C120" s="26"/>
       <c r="D120" s="18"/>
@@ -1775,7 +2064,7 @@
       <c r="H120" s="18"/>
       <c r="I120" s="19"/>
     </row>
-    <row r="121" ht="15.75" customHeight="1">
+    <row r="121" spans="2:9" ht="15.75" customHeight="1">
       <c r="B121" s="25"/>
       <c r="C121" s="26"/>
       <c r="D121" s="18"/>
@@ -1785,7 +2074,7 @@
       <c r="H121" s="18"/>
       <c r="I121" s="18"/>
     </row>
-    <row r="122" ht="15.75" customHeight="1">
+    <row r="122" spans="2:9" ht="15.75" customHeight="1">
       <c r="B122" s="25"/>
       <c r="C122" s="26"/>
       <c r="D122" s="18"/>
@@ -1795,7 +2084,7 @@
       <c r="H122" s="18"/>
       <c r="I122" s="18"/>
     </row>
-    <row r="123" ht="15.75" customHeight="1">
+    <row r="123" spans="2:9" ht="15.75" customHeight="1">
       <c r="B123" s="25"/>
       <c r="C123" s="26"/>
       <c r="D123" s="18"/>
@@ -1805,7 +2094,7 @@
       <c r="H123" s="18"/>
       <c r="I123" s="18"/>
     </row>
-    <row r="124" ht="15.75" customHeight="1">
+    <row r="124" spans="2:9" ht="15.75" customHeight="1">
       <c r="B124" s="25"/>
       <c r="C124" s="26"/>
       <c r="D124" s="18"/>
@@ -1815,7 +2104,7 @@
       <c r="H124" s="18"/>
       <c r="I124" s="18"/>
     </row>
-    <row r="125" ht="15.75" customHeight="1">
+    <row r="125" spans="2:9" ht="15.75" customHeight="1">
       <c r="B125" s="25"/>
       <c r="C125" s="26"/>
       <c r="D125" s="18"/>
@@ -1825,7 +2114,7 @@
       <c r="H125" s="18"/>
       <c r="I125" s="18"/>
     </row>
-    <row r="126" ht="15.75" customHeight="1">
+    <row r="126" spans="2:9" ht="15.75" customHeight="1">
       <c r="B126" s="25"/>
       <c r="C126" s="25"/>
       <c r="D126" s="18"/>
@@ -1835,7 +2124,7 @@
       <c r="H126" s="18"/>
       <c r="I126" s="18"/>
     </row>
-    <row r="127" ht="15.75" customHeight="1">
+    <row r="127" spans="2:9" ht="15.75" customHeight="1">
       <c r="B127" s="25"/>
       <c r="C127" s="25"/>
       <c r="D127" s="19"/>
@@ -1845,7 +2134,7 @@
       <c r="H127" s="18"/>
       <c r="I127" s="18"/>
     </row>
-    <row r="128" ht="15.75" customHeight="1">
+    <row r="128" spans="2:9" ht="15.75" customHeight="1">
       <c r="B128" s="25"/>
       <c r="C128" s="25"/>
       <c r="D128" s="18"/>
@@ -1855,7 +2144,7 @@
       <c r="H128" s="18"/>
       <c r="I128" s="18"/>
     </row>
-    <row r="129" ht="15.75" customHeight="1">
+    <row r="129" spans="2:9" ht="15.75" customHeight="1">
       <c r="B129" s="25"/>
       <c r="C129" s="25"/>
       <c r="D129" s="18"/>
@@ -1865,7 +2154,7 @@
       <c r="H129" s="18"/>
       <c r="I129" s="18"/>
     </row>
-    <row r="130" ht="15.75" customHeight="1">
+    <row r="130" spans="2:9" ht="15.75" customHeight="1">
       <c r="B130" s="25"/>
       <c r="C130" s="26"/>
       <c r="D130" s="18"/>
@@ -1875,7 +2164,7 @@
       <c r="H130" s="18"/>
       <c r="I130" s="18"/>
     </row>
-    <row r="131" ht="15.75" customHeight="1">
+    <row r="131" spans="2:9" ht="15.75" customHeight="1">
       <c r="B131" s="25"/>
       <c r="C131" s="26"/>
       <c r="D131" s="18"/>
@@ -1885,7 +2174,7 @@
       <c r="H131" s="18"/>
       <c r="I131" s="18"/>
     </row>
-    <row r="132" ht="15.75" customHeight="1">
+    <row r="132" spans="2:9" ht="15.75" customHeight="1">
       <c r="B132" s="25"/>
       <c r="C132" s="26"/>
       <c r="D132" s="18"/>
@@ -1895,7 +2184,7 @@
       <c r="H132" s="18"/>
       <c r="I132" s="18"/>
     </row>
-    <row r="133" ht="15.75" customHeight="1">
+    <row r="133" spans="2:9" ht="15.75" customHeight="1">
       <c r="B133" s="25"/>
       <c r="C133" s="26"/>
       <c r="D133" s="18"/>
@@ -1905,7 +2194,7 @@
       <c r="H133" s="18"/>
       <c r="I133" s="18"/>
     </row>
-    <row r="134" ht="15.75" customHeight="1">
+    <row r="134" spans="2:9" ht="15.75" customHeight="1">
       <c r="B134" s="25"/>
       <c r="C134" s="26"/>
       <c r="D134" s="18"/>
@@ -1915,7 +2204,7 @@
       <c r="H134" s="18"/>
       <c r="I134" s="18"/>
     </row>
-    <row r="135" ht="15.75" customHeight="1">
+    <row r="135" spans="2:9" ht="15.75" customHeight="1">
       <c r="B135" s="25"/>
       <c r="C135" s="26"/>
       <c r="D135" s="18"/>
@@ -1925,7 +2214,7 @@
       <c r="H135" s="19"/>
       <c r="I135" s="18"/>
     </row>
-    <row r="136" ht="15.75" customHeight="1">
+    <row r="136" spans="2:9" ht="15.75" customHeight="1">
       <c r="B136" s="25"/>
       <c r="C136" s="26"/>
       <c r="D136" s="18"/>
@@ -1935,7 +2224,7 @@
       <c r="H136" s="18"/>
       <c r="I136" s="19"/>
     </row>
-    <row r="137" ht="15.75" customHeight="1">
+    <row r="137" spans="2:9" ht="15.75" customHeight="1">
       <c r="B137" s="25"/>
       <c r="C137" s="26"/>
       <c r="D137" s="18"/>
@@ -1945,7 +2234,7 @@
       <c r="H137" s="18"/>
       <c r="I137" s="18"/>
     </row>
-    <row r="138" ht="15.75" customHeight="1">
+    <row r="138" spans="2:9" ht="15.75" customHeight="1">
       <c r="B138" s="25"/>
       <c r="C138" s="26"/>
       <c r="D138" s="18"/>
@@ -1955,7 +2244,7 @@
       <c r="H138" s="18"/>
       <c r="I138" s="18"/>
     </row>
-    <row r="139" ht="15.75" customHeight="1">
+    <row r="139" spans="2:9" ht="15.75" customHeight="1">
       <c r="B139" s="25"/>
       <c r="C139" s="25"/>
       <c r="D139" s="18"/>
@@ -1965,7 +2254,7 @@
       <c r="H139" s="18"/>
       <c r="I139" s="18"/>
     </row>
-    <row r="140" ht="15.75" customHeight="1">
+    <row r="140" spans="2:9" ht="15.75" customHeight="1">
       <c r="B140" s="25"/>
       <c r="C140" s="25"/>
       <c r="D140" s="18"/>
@@ -1975,7 +2264,7 @@
       <c r="H140" s="18"/>
       <c r="I140" s="18"/>
     </row>
-    <row r="141" ht="15.75" customHeight="1">
+    <row r="141" spans="2:9" ht="15.75" customHeight="1">
       <c r="B141" s="25"/>
       <c r="C141" s="25"/>
       <c r="D141" s="18"/>
@@ -1985,7 +2274,7 @@
       <c r="H141" s="18"/>
       <c r="I141" s="18"/>
     </row>
-    <row r="142" ht="15.75" customHeight="1">
+    <row r="142" spans="2:9" ht="15.75" customHeight="1">
       <c r="B142" s="25"/>
       <c r="C142" s="26"/>
       <c r="D142" s="18"/>
@@ -1995,7 +2284,7 @@
       <c r="H142" s="18"/>
       <c r="I142" s="18"/>
     </row>
-    <row r="143" ht="15.75" customHeight="1">
+    <row r="143" spans="2:9" ht="15.75" customHeight="1">
       <c r="B143" s="25"/>
       <c r="C143" s="26"/>
       <c r="D143" s="18"/>
@@ -2005,7 +2294,7 @@
       <c r="H143" s="18"/>
       <c r="I143" s="18"/>
     </row>
-    <row r="144" ht="15.75" customHeight="1">
+    <row r="144" spans="2:9" ht="15.75" customHeight="1">
       <c r="B144" s="25"/>
       <c r="C144" s="26"/>
       <c r="D144" s="18"/>
@@ -2015,7 +2304,7 @@
       <c r="H144" s="18"/>
       <c r="I144" s="18"/>
     </row>
-    <row r="145" ht="15.75" customHeight="1">
+    <row r="145" spans="2:9" ht="15.75" customHeight="1">
       <c r="B145" s="25"/>
       <c r="C145" s="25"/>
       <c r="D145" s="18"/>
@@ -2025,7 +2314,7 @@
       <c r="H145" s="27"/>
       <c r="I145" s="18"/>
     </row>
-    <row r="146" ht="15.75" customHeight="1">
+    <row r="146" spans="2:9" ht="15.75" customHeight="1">
       <c r="B146" s="25"/>
       <c r="C146" s="25"/>
       <c r="D146" s="18"/>
@@ -2035,7 +2324,7 @@
       <c r="H146" s="18"/>
       <c r="I146" s="18"/>
     </row>
-    <row r="147" ht="15.75" customHeight="1">
+    <row r="147" spans="2:9" ht="15.75" customHeight="1">
       <c r="B147" s="25"/>
       <c r="C147" s="25"/>
       <c r="D147" s="18"/>
@@ -2045,7 +2334,7 @@
       <c r="H147" s="18"/>
       <c r="I147" s="18"/>
     </row>
-    <row r="148" ht="15.75" customHeight="1">
+    <row r="148" spans="2:9" ht="15.75" customHeight="1">
       <c r="B148" s="25"/>
       <c r="C148" s="25"/>
       <c r="D148" s="18"/>
@@ -2055,7 +2344,7 @@
       <c r="H148" s="18"/>
       <c r="I148" s="18"/>
     </row>
-    <row r="149" ht="15.75" customHeight="1">
+    <row r="149" spans="2:9" ht="15.75" customHeight="1">
       <c r="B149" s="25"/>
       <c r="C149" s="25"/>
       <c r="D149" s="18"/>
@@ -2065,7 +2354,7 @@
       <c r="H149" s="18"/>
       <c r="I149" s="18"/>
     </row>
-    <row r="150" ht="15.75" customHeight="1">
+    <row r="150" spans="2:9" ht="15.75" customHeight="1">
       <c r="B150" s="25"/>
       <c r="C150" s="26"/>
       <c r="D150" s="18"/>
@@ -2075,7 +2364,7 @@
       <c r="H150" s="18"/>
       <c r="I150" s="18"/>
     </row>
-    <row r="151" ht="15.75" customHeight="1">
+    <row r="151" spans="2:9" ht="15.75" customHeight="1">
       <c r="B151" s="25"/>
       <c r="C151" s="26"/>
       <c r="D151" s="18"/>
@@ -2085,7 +2374,7 @@
       <c r="H151" s="18"/>
       <c r="I151" s="18"/>
     </row>
-    <row r="152" ht="15.75" customHeight="1">
+    <row r="152" spans="2:9" ht="15.75" customHeight="1">
       <c r="B152" s="25"/>
       <c r="C152" s="26"/>
       <c r="D152" s="18"/>
@@ -2095,7 +2384,7 @@
       <c r="H152" s="18"/>
       <c r="I152" s="18"/>
     </row>
-    <row r="153" ht="15.75" customHeight="1">
+    <row r="153" spans="2:9" ht="15.75" customHeight="1">
       <c r="B153" s="25"/>
       <c r="C153" s="26"/>
       <c r="D153" s="18"/>
@@ -2105,7 +2394,7 @@
       <c r="H153" s="18"/>
       <c r="I153" s="18"/>
     </row>
-    <row r="154" ht="15.75" customHeight="1">
+    <row r="154" spans="2:9" ht="15.75" customHeight="1">
       <c r="B154" s="25"/>
       <c r="C154" s="26"/>
       <c r="D154" s="18"/>
@@ -2115,7 +2404,7 @@
       <c r="H154" s="18"/>
       <c r="I154" s="18"/>
     </row>
-    <row r="155" ht="15.75" customHeight="1">
+    <row r="155" spans="2:9" ht="15.75" customHeight="1">
       <c r="B155" s="25"/>
       <c r="C155" s="26"/>
       <c r="D155" s="18"/>
@@ -2125,7 +2414,7 @@
       <c r="H155" s="18"/>
       <c r="I155" s="18"/>
     </row>
-    <row r="156" ht="15.75" customHeight="1">
+    <row r="156" spans="2:9" ht="15.75" customHeight="1">
       <c r="B156" s="25"/>
       <c r="C156" s="26"/>
       <c r="D156" s="18"/>
@@ -2135,7 +2424,7 @@
       <c r="H156" s="18"/>
       <c r="I156" s="18"/>
     </row>
-    <row r="157" ht="15.75" customHeight="1">
+    <row r="157" spans="2:9" ht="15.75" customHeight="1">
       <c r="B157" s="25"/>
       <c r="C157" s="26"/>
       <c r="D157" s="18"/>
@@ -2145,7 +2434,7 @@
       <c r="H157" s="18"/>
       <c r="I157" s="18"/>
     </row>
-    <row r="158" ht="15.75" customHeight="1">
+    <row r="158" spans="2:9" ht="15.75" customHeight="1">
       <c r="B158" s="25"/>
       <c r="C158" s="26"/>
       <c r="D158" s="18"/>
@@ -2155,7 +2444,7 @@
       <c r="H158" s="18"/>
       <c r="I158" s="18"/>
     </row>
-    <row r="159" ht="15.75" customHeight="1">
+    <row r="159" spans="2:9" ht="15.75" customHeight="1">
       <c r="B159" s="26"/>
       <c r="C159" s="25"/>
       <c r="D159" s="18"/>
@@ -2165,7 +2454,7 @@
       <c r="H159" s="18"/>
       <c r="I159" s="18"/>
     </row>
-    <row r="160" ht="15.75" customHeight="1">
+    <row r="160" spans="2:9" ht="15.75" customHeight="1">
       <c r="B160" s="26"/>
       <c r="C160" s="25"/>
       <c r="D160" s="18"/>
@@ -2175,7 +2464,7 @@
       <c r="H160" s="18"/>
       <c r="I160" s="18"/>
     </row>
-    <row r="161" ht="15.75" customHeight="1">
+    <row r="161" spans="2:9" ht="15.75" customHeight="1">
       <c r="B161" s="26"/>
       <c r="C161" s="25"/>
       <c r="D161" s="18"/>
@@ -2185,7 +2474,7 @@
       <c r="H161" s="18"/>
       <c r="I161" s="18"/>
     </row>
-    <row r="162" ht="15.75" customHeight="1">
+    <row r="162" spans="2:9" ht="15.75" customHeight="1">
       <c r="B162" s="26"/>
       <c r="C162" s="25"/>
       <c r="D162" s="18"/>
@@ -2195,7 +2484,7 @@
       <c r="H162" s="18"/>
       <c r="I162" s="18"/>
     </row>
-    <row r="163" ht="15.75" customHeight="1">
+    <row r="163" spans="2:9" ht="15.75" customHeight="1">
       <c r="B163" s="25"/>
       <c r="C163" s="25"/>
       <c r="D163" s="18"/>
@@ -2205,7 +2494,7 @@
       <c r="H163" s="18"/>
       <c r="I163" s="18"/>
     </row>
-    <row r="164" ht="15.75" customHeight="1">
+    <row r="164" spans="2:9" ht="15.75" customHeight="1">
       <c r="B164" s="25"/>
       <c r="C164" s="25"/>
       <c r="D164" s="18"/>
@@ -2215,7 +2504,7 @@
       <c r="H164" s="18"/>
       <c r="I164" s="18"/>
     </row>
-    <row r="165" ht="15.75" customHeight="1">
+    <row r="165" spans="2:9" ht="15.75" customHeight="1">
       <c r="B165" s="25"/>
       <c r="C165" s="25"/>
       <c r="D165" s="18"/>
@@ -2225,7 +2514,7 @@
       <c r="H165" s="18"/>
       <c r="I165" s="18"/>
     </row>
-    <row r="166" ht="15.75" customHeight="1">
+    <row r="166" spans="2:9" ht="15.75" customHeight="1">
       <c r="B166" s="26"/>
       <c r="C166" s="25"/>
       <c r="D166" s="18"/>
@@ -2235,7 +2524,7 @@
       <c r="H166" s="18"/>
       <c r="I166" s="18"/>
     </row>
-    <row r="167" ht="15.75" customHeight="1">
+    <row r="167" spans="2:9" ht="15.75" customHeight="1">
       <c r="B167" s="26"/>
       <c r="C167" s="25"/>
       <c r="D167" s="18"/>
@@ -2245,7 +2534,7 @@
       <c r="H167" s="18"/>
       <c r="I167" s="18"/>
     </row>
-    <row r="168" ht="15.75" customHeight="1">
+    <row r="168" spans="2:9" ht="15.75" customHeight="1">
       <c r="B168" s="25"/>
       <c r="C168" s="26"/>
       <c r="D168" s="18"/>
@@ -2255,7 +2544,7 @@
       <c r="H168" s="18"/>
       <c r="I168" s="18"/>
     </row>
-    <row r="169" ht="15.75" customHeight="1">
+    <row r="169" spans="2:9" ht="15.75" customHeight="1">
       <c r="B169" s="25"/>
       <c r="C169" s="26"/>
       <c r="D169" s="18"/>
@@ -2265,7 +2554,7 @@
       <c r="H169" s="18"/>
       <c r="I169" s="18"/>
     </row>
-    <row r="170" ht="15.75" customHeight="1">
+    <row r="170" spans="2:9" ht="15.75" customHeight="1">
       <c r="B170" s="25"/>
       <c r="C170" s="26"/>
       <c r="D170" s="18"/>
@@ -2275,7 +2564,7 @@
       <c r="H170" s="18"/>
       <c r="I170" s="18"/>
     </row>
-    <row r="171" ht="15.75" customHeight="1">
+    <row r="171" spans="2:9" ht="15.75" customHeight="1">
       <c r="B171" s="25"/>
       <c r="C171" s="26"/>
       <c r="D171" s="18"/>
@@ -2285,7 +2574,7 @@
       <c r="H171" s="18"/>
       <c r="I171" s="18"/>
     </row>
-    <row r="172" ht="15.75" customHeight="1">
+    <row r="172" spans="2:9" ht="15.75" customHeight="1">
       <c r="B172" s="25"/>
       <c r="C172" s="26"/>
       <c r="D172" s="18"/>
@@ -2295,7 +2584,7 @@
       <c r="H172" s="18"/>
       <c r="I172" s="18"/>
     </row>
-    <row r="173" ht="15.75" customHeight="1">
+    <row r="173" spans="2:9" ht="15.75" customHeight="1">
       <c r="B173" s="25"/>
       <c r="C173" s="26"/>
       <c r="D173" s="18"/>
@@ -2305,7 +2594,7 @@
       <c r="H173" s="18"/>
       <c r="I173" s="18"/>
     </row>
-    <row r="174" ht="15.75" customHeight="1">
+    <row r="174" spans="2:9" ht="15.75" customHeight="1">
       <c r="B174" s="25"/>
       <c r="C174" s="25"/>
       <c r="D174" s="23"/>
@@ -2315,7 +2604,7 @@
       <c r="H174" s="23"/>
       <c r="I174" s="23"/>
     </row>
-    <row r="175" ht="15.75" customHeight="1">
+    <row r="175" spans="2:9" ht="15.75" customHeight="1">
       <c r="B175" s="25"/>
       <c r="C175" s="25"/>
       <c r="D175" s="23"/>
@@ -2325,7 +2614,7 @@
       <c r="H175" s="23"/>
       <c r="I175" s="23"/>
     </row>
-    <row r="176" ht="15.75" customHeight="1">
+    <row r="176" spans="2:9" ht="15.75" customHeight="1">
       <c r="B176" s="25"/>
       <c r="C176" s="25"/>
       <c r="D176" s="18"/>
@@ -2335,7 +2624,7 @@
       <c r="H176" s="18"/>
       <c r="I176" s="18"/>
     </row>
-    <row r="177" ht="15.75" customHeight="1">
+    <row r="177" spans="2:9" ht="15.75" customHeight="1">
       <c r="B177" s="25"/>
       <c r="C177" s="25"/>
       <c r="D177" s="18"/>
@@ -2345,7 +2634,7 @@
       <c r="H177" s="18"/>
       <c r="I177" s="18"/>
     </row>
-    <row r="178" ht="15.75" customHeight="1">
+    <row r="178" spans="2:9" ht="15.75" customHeight="1">
       <c r="B178" s="25"/>
       <c r="C178" s="25"/>
       <c r="D178" s="18"/>
@@ -2355,7 +2644,7 @@
       <c r="H178" s="18"/>
       <c r="I178" s="18"/>
     </row>
-    <row r="179" ht="15.75" customHeight="1">
+    <row r="179" spans="2:9" ht="15.75" customHeight="1">
       <c r="B179" s="25"/>
       <c r="C179" s="26"/>
       <c r="D179" s="18"/>
@@ -2365,7 +2654,7 @@
       <c r="H179" s="18"/>
       <c r="I179" s="18"/>
     </row>
-    <row r="180" ht="15.75" customHeight="1">
+    <row r="180" spans="2:9" ht="15.75" customHeight="1">
       <c r="B180" s="25"/>
       <c r="C180" s="25"/>
       <c r="D180" s="18"/>
@@ -2375,7 +2664,7 @@
       <c r="H180" s="18"/>
       <c r="I180" s="18"/>
     </row>
-    <row r="181" ht="15.75" customHeight="1">
+    <row r="181" spans="2:9" ht="15.75" customHeight="1">
       <c r="B181" s="25"/>
       <c r="C181" s="25"/>
       <c r="D181" s="18"/>
@@ -2385,7 +2674,7 @@
       <c r="H181" s="18"/>
       <c r="I181" s="18"/>
     </row>
-    <row r="182" ht="15.75" customHeight="1">
+    <row r="182" spans="2:9" ht="15.75" customHeight="1">
       <c r="B182" s="25"/>
       <c r="C182" s="25"/>
       <c r="D182" s="18"/>
@@ -2395,7 +2684,7 @@
       <c r="H182" s="18"/>
       <c r="I182" s="18"/>
     </row>
-    <row r="183" ht="15.75" customHeight="1">
+    <row r="183" spans="2:9" ht="15.75" customHeight="1">
       <c r="B183" s="25"/>
       <c r="C183" s="25"/>
       <c r="D183" s="28"/>
@@ -2405,7 +2694,7 @@
       <c r="H183" s="18"/>
       <c r="I183" s="18"/>
     </row>
-    <row r="184" ht="15.75" customHeight="1">
+    <row r="184" spans="2:9" ht="15.75" customHeight="1">
       <c r="B184" s="25"/>
       <c r="C184" s="26"/>
       <c r="D184" s="18"/>
@@ -2415,7 +2704,7 @@
       <c r="H184" s="18"/>
       <c r="I184" s="18"/>
     </row>
-    <row r="185" ht="15.75" customHeight="1">
+    <row r="185" spans="2:9" ht="15.75" customHeight="1">
       <c r="B185" s="25"/>
       <c r="C185" s="26"/>
       <c r="D185" s="18"/>
@@ -2425,7 +2714,7 @@
       <c r="H185" s="18"/>
       <c r="I185" s="18"/>
     </row>
-    <row r="186" ht="15.75" customHeight="1">
+    <row r="186" spans="2:9" ht="15.75" customHeight="1">
       <c r="B186" s="25"/>
       <c r="C186" s="25"/>
       <c r="D186" s="18"/>
@@ -2435,7 +2724,7 @@
       <c r="H186" s="18"/>
       <c r="I186" s="18"/>
     </row>
-    <row r="187" ht="15.75" customHeight="1">
+    <row r="187" spans="2:9" ht="15.75" customHeight="1">
       <c r="B187" s="25"/>
       <c r="C187" s="25"/>
       <c r="D187" s="18"/>
@@ -2445,54 +2734,54 @@
       <c r="H187" s="18"/>
       <c r="I187" s="18"/>
     </row>
-    <row r="188" ht="15.75" customHeight="1">
+    <row r="188" spans="2:9" ht="15.75" customHeight="1">
       <c r="B188" s="25"/>
       <c r="C188" s="26"/>
     </row>
-    <row r="189" ht="15.75" customHeight="1">
+    <row r="189" spans="2:9" ht="15.75" customHeight="1">
       <c r="B189" s="25"/>
       <c r="C189" s="26"/>
     </row>
-    <row r="190" ht="15.75" customHeight="1">
+    <row r="190" spans="2:9" ht="15.75" customHeight="1">
       <c r="B190" s="25"/>
       <c r="C190" s="26"/>
     </row>
-    <row r="191" ht="15.75" customHeight="1">
+    <row r="191" spans="2:9" ht="15.75" customHeight="1">
       <c r="B191" s="25"/>
       <c r="C191" s="26"/>
     </row>
-    <row r="192" ht="15.75" customHeight="1">
+    <row r="192" spans="2:9" ht="15.75" customHeight="1">
       <c r="B192" s="25"/>
       <c r="C192" s="26"/>
     </row>
-    <row r="193" ht="15.75" customHeight="1">
+    <row r="193" spans="2:3" ht="15.75" customHeight="1">
       <c r="B193" s="25"/>
       <c r="C193" s="25"/>
     </row>
-    <row r="194" ht="15.75" customHeight="1">
+    <row r="194" spans="2:3" ht="15.75" customHeight="1">
       <c r="B194" s="25"/>
       <c r="C194" s="26"/>
     </row>
-    <row r="195" ht="15.75" customHeight="1">
+    <row r="195" spans="2:3" ht="15.75" customHeight="1">
       <c r="B195" s="25"/>
       <c r="C195" s="26"/>
     </row>
-    <row r="196" ht="15.75" customHeight="1">
+    <row r="196" spans="2:3" ht="15.75" customHeight="1">
       <c r="B196" s="25"/>
       <c r="C196" s="26"/>
     </row>
-    <row r="197" ht="15.75" customHeight="1"/>
-    <row r="198" ht="15.75" customHeight="1"/>
-    <row r="199" ht="15.75" customHeight="1"/>
-    <row r="200" ht="15.75" customHeight="1"/>
-    <row r="201" ht="15.75" customHeight="1"/>
-    <row r="202" ht="15.75" customHeight="1"/>
-    <row r="203" ht="15.75" customHeight="1"/>
-    <row r="204" ht="15.75" customHeight="1"/>
-    <row r="205" ht="15.75" customHeight="1"/>
-    <row r="206" ht="15.75" customHeight="1"/>
-    <row r="207" ht="15.75" customHeight="1"/>
-    <row r="208" ht="15.75" customHeight="1"/>
+    <row r="197" spans="2:3" ht="15.75" customHeight="1"/>
+    <row r="198" spans="2:3" ht="15.75" customHeight="1"/>
+    <row r="199" spans="2:3" ht="15.75" customHeight="1"/>
+    <row r="200" spans="2:3" ht="15.75" customHeight="1"/>
+    <row r="201" spans="2:3" ht="15.75" customHeight="1"/>
+    <row r="202" spans="2:3" ht="15.75" customHeight="1"/>
+    <row r="203" spans="2:3" ht="15.75" customHeight="1"/>
+    <row r="204" spans="2:3" ht="15.75" customHeight="1"/>
+    <row r="205" spans="2:3" ht="15.75" customHeight="1"/>
+    <row r="206" spans="2:3" ht="15.75" customHeight="1"/>
+    <row r="207" spans="2:3" ht="15.75" customHeight="1"/>
+    <row r="208" spans="2:3" ht="15.75" customHeight="1"/>
     <row r="209" ht="15.75" customHeight="1"/>
     <row r="210" ht="15.75" customHeight="1"/>
     <row r="211" ht="15.75" customHeight="1"/>
@@ -3286,9 +3575,7 @@
     <row r="999" ht="15.75" customHeight="1"/>
     <row r="1000" ht="15.75" customHeight="1"/>
   </sheetData>
-  <printOptions/>
-  <pageMargins bottom="0.75" footer="0.0" header="0.0" left="0.7" right="0.7" top="0.75"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0" footer="0"/>
   <pageSetup orientation="portrait"/>
-  <drawing r:id="rId1"/>
 </worksheet>
 </file>